--- a/PTP_Isolation/Vel_100/Standard_Deviation and Max.xlsx
+++ b/PTP_Isolation/Vel_100/Standard_Deviation and Max.xlsx
@@ -460,22 +460,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03838429892367953</v>
+        <v>0.02588004227551893</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01698753406448049</v>
+        <v>0.01525519540867466</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05958942708979525</v>
+        <v>0.04415322086835657</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04150802589602881</v>
+        <v>0.03219527645924017</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09049341558196465</v>
+        <v>0.07235739080727961</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1326263980911156</v>
+        <v>0.1071726775388513</v>
       </c>
     </row>
     <row r="4">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04674935299605021</v>
+        <v>0.07724121144269158</v>
       </c>
       <c r="C4" t="n">
         <v>0.05193095207041476</v>

--- a/PTP_Isolation/Vel_100/Standard_Deviation and Max.xlsx
+++ b/PTP_Isolation/Vel_100/Standard_Deviation and Max.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,6 +503,31 @@
         <v>0.3488671779083071</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.03172419637273724</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.01317945728601877</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04619917179409822</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0399047008522001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.07814089129967296</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1238611781735173</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
